--- a/Scripts/viterbiPlot.xlsx
+++ b/Scripts/viterbiPlot.xlsx
@@ -202,11 +202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="9"/>
-        <c:axId val="54376320"/>
-        <c:axId val="54385664"/>
+        <c:axId val="175788416"/>
+        <c:axId val="175790336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54376320"/>
+        <c:axId val="175788416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -243,7 +243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54385664"/>
+        <c:crossAx val="175790336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -251,7 +251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54385664"/>
+        <c:axId val="175790336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -286,7 +286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54376320"/>
+        <c:crossAx val="175788416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -623,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3024"/>
+  <dimension ref="A1:H3024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2950" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F2979" sqref="F2979"/>
+    <sheetView tabSelected="1" topLeftCell="A2982" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2994" sqref="I2994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15600,7 +15600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2993" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2993" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2993" s="1">
         <v>0.16</v>
       </c>
@@ -15619,8 +15619,12 @@
       <c r="G2993">
         <v>1546</v>
       </c>
-    </row>
-    <row r="2994" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2993">
+        <f>SUM(F2993:F2995)</f>
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2994" s="1">
         <v>0.16</v>
       </c>
@@ -15628,21 +15632,25 @@
         <v>2</v>
       </c>
       <c r="D2994" s="2">
-        <f>D2993+0.0353</f>
+        <f t="shared" ref="D2994:D3002" si="0">D2993+0.0353</f>
         <v>7.0599999999999996E-2</v>
       </c>
       <c r="E2994" s="2">
         <v>7.0599999999999996E-2</v>
       </c>
       <c r="F2994">
-        <f t="shared" ref="F2994:F2995" si="0">ABS(G2993-G2994)</f>
+        <f t="shared" ref="F2994:F2995" si="1">ABS(G2993-G2994)</f>
         <v>1175</v>
       </c>
       <c r="G2994">
         <v>2721</v>
       </c>
-    </row>
-    <row r="2995" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2994">
+        <f>H2993/3014</f>
+        <v>0.98142003981420045</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2995" s="1">
         <v>0.16070999999999999</v>
       </c>
@@ -15650,21 +15658,21 @@
         <v>3</v>
       </c>
       <c r="D2995" s="2">
-        <f>D2994+0.0353</f>
+        <f t="shared" si="0"/>
         <v>0.10589999999999999</v>
       </c>
       <c r="E2995" s="2">
         <v>0.10589999999999999</v>
       </c>
       <c r="F2995">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>237</v>
       </c>
       <c r="G2995">
         <v>2958</v>
       </c>
     </row>
-    <row r="2996" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2996" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2996" s="1">
         <v>0.16070999999999999</v>
       </c>
@@ -15672,7 +15680,7 @@
         <v>4</v>
       </c>
       <c r="D2996" s="2">
-        <f>D2995+0.0353</f>
+        <f t="shared" si="0"/>
         <v>0.14119999999999999</v>
       </c>
       <c r="E2996" s="2">
@@ -15686,7 +15694,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="2997" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2997" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2997" s="1">
         <v>0.16070999999999999</v>
       </c>
@@ -15694,21 +15702,21 @@
         <v>5</v>
       </c>
       <c r="D2997" s="2">
-        <f>D2996+0.0353</f>
+        <f t="shared" si="0"/>
         <v>0.17649999999999999</v>
       </c>
       <c r="E2997" s="2">
         <v>0.17649999999999999</v>
       </c>
       <c r="F2997">
-        <f t="shared" ref="F2997:F3003" si="1">ABS(G2996-G2997)</f>
+        <f t="shared" ref="F2997:F3002" si="2">ABS(G2996-G2997)</f>
         <v>26</v>
       </c>
       <c r="G2997">
         <v>3003</v>
       </c>
     </row>
-    <row r="2998" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2998" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2998" s="1">
         <v>0.16070999999999999</v>
       </c>
@@ -15716,21 +15724,21 @@
         <v>6</v>
       </c>
       <c r="D2998" s="2">
-        <f>D2997+0.0353</f>
+        <f t="shared" si="0"/>
         <v>0.21179999999999999</v>
       </c>
       <c r="E2998" s="2">
         <v>0.21179999999999999</v>
       </c>
       <c r="F2998">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G2998">
         <v>3004</v>
       </c>
     </row>
-    <row r="2999" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2999" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2999" s="1">
         <v>0.16070999999999999</v>
       </c>
@@ -15738,21 +15746,21 @@
         <v>7</v>
       </c>
       <c r="D2999" s="2">
-        <f>D2998+0.0353</f>
+        <f t="shared" si="0"/>
         <v>0.24709999999999999</v>
       </c>
       <c r="E2999" s="2">
         <v>0.24709999999999999</v>
       </c>
       <c r="F2999">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G2999">
         <v>3009</v>
       </c>
     </row>
-    <row r="3000" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3000" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3000" s="1">
         <v>0.16070999999999999</v>
       </c>
@@ -15760,21 +15768,21 @@
         <v>8</v>
       </c>
       <c r="D3000" s="2">
-        <f>D2999+0.0353</f>
+        <f t="shared" si="0"/>
         <v>0.28239999999999998</v>
       </c>
       <c r="E3000" s="2">
         <v>0.28239999999999998</v>
       </c>
       <c r="F3000">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G3000">
         <v>3010</v>
       </c>
     </row>
-    <row r="3001" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3001" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3001" s="1">
         <v>0.16070999999999999</v>
       </c>
@@ -15782,21 +15790,21 @@
         <v>9</v>
       </c>
       <c r="D3001" s="2">
-        <f>D3000+0.0353</f>
+        <f t="shared" si="0"/>
         <v>0.31769999999999998</v>
       </c>
       <c r="E3001" s="2">
         <v>0.31769999999999998</v>
       </c>
       <c r="F3001">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G3001">
         <v>3011</v>
       </c>
     </row>
-    <row r="3002" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3002" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3002" s="1">
         <v>0.16378999999999999</v>
       </c>
@@ -15804,46 +15812,46 @@
         <v>10</v>
       </c>
       <c r="D3002" s="2">
-        <f>D3001+0.0353</f>
+        <f t="shared" si="0"/>
         <v>0.35299999999999998</v>
       </c>
       <c r="E3002" s="2">
         <v>0.35299999999999998</v>
       </c>
       <c r="F3002">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G3002">
         <v>3014</v>
       </c>
     </row>
-    <row r="3003" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3003" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3003" s="1">
         <v>0.16807</v>
       </c>
     </row>
-    <row r="3004" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3004" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3004" s="1">
         <v>0.16832</v>
       </c>
     </row>
-    <row r="3005" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3005" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3005" s="1">
         <v>0.16964000000000001</v>
       </c>
     </row>
-    <row r="3006" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3006" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3006" s="1">
         <v>0.16964000000000001</v>
       </c>
     </row>
-    <row r="3007" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3007" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3007" s="1">
         <v>0.17172000000000001</v>
       </c>
     </row>
-    <row r="3008" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3008" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3008" s="2">
         <v>0.17649999999999999</v>
       </c>
